--- a/Reports/Linux/automation/remote/RemoteWebRtcFirefoxTest.xlsx
+++ b/Reports/Linux/automation/remote/RemoteWebRtcFirefoxTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 08:52:05</t>
   </si>
   <si>
-    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
+    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,14 +113,11 @@
     <t>Firefox browser on remote must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
+    <t xml:space="preserve">- Add Linux test results
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Connect to RemoteWebDriver at http://127.0.0.1:4444/wd/hub</t>
@@ -133,10 +130,13 @@
     <t>Connect to RemoteWebDriver successfully</t>
   </si>
   <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Navigate to https://webrtc.github.io/samples/src/content/devices/input-output/</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Navigate to https://webrtc.github.io/samples/src/content/devices/input-output/</t>
   </si>
 </sst>
 </file>
@@ -691,19 +691,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44421.59229166667</v>
+        <v>44421.63395833333</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -739,19 +739,19 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -759,19 +759,19 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/Linux/automation/remote/RemoteWebRtcFirefoxTest.xlsx
+++ b/Reports/Linux/automation/remote/RemoteWebRtcFirefoxTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 08:52:05</t>
   </si>
   <si>
-    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
+    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,8 +113,7 @@
     <t>Firefox browser on remote must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add Linux test results
-</t>
+    <t>Delete advance.md</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/Linux/automation/remote/RemoteWebRtcFirefoxTest.xlsx
+++ b/Reports/Linux/automation/remote/RemoteWebRtcFirefoxTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/22/21 08:52:05</t>
   </si>
   <si>
-    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
+    <t>76ebaf2b7f0ed251d3b47f8a6ef279cd00691a08</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Firefox browser on remote must close successfully.</t>
   </si>
   <si>
-    <t>Delete advance.md</t>
+    <t>Update README.md</t>
   </si>
   <si>
     <t>Pass</t>
